--- a/Documentos/Testes/Classes.xlsx
+++ b/Documentos/Testes/Classes.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valder.souza\Desktop\,Testes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projeto_C#\Read.XLSX\Documentos\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D564C590-158C-431B-9BC4-D35E1E023973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A32E33C-7293-4F63-A34E-1BD06D4A6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA93BF54-907A-48C4-98E7-EACB606DA5C4}"/>
+    <workbookView xWindow="-34920" yWindow="600" windowWidth="26100" windowHeight="13350" activeTab="2" xr2:uid="{FA93BF54-907A-48C4-98E7-EACB606DA5C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Grid A</t>
-  </si>
-  <si>
-    <t>Exemplo de usuários (Objeto Usuario)</t>
-  </si>
-  <si>
-    <t>Exemplo da lista de pagamentos (Objeto Pagamento)</t>
   </si>
   <si>
     <t>Exemplo de Saída ao selecionar o 'Alberto Quintero'</t>
@@ -87,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +97,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,10 +138,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD2EC724-BAC3-4EBA-A940-B58B62B510E2}" name="Tabela1" displayName="Tabela1" ref="B3:E6" totalsRowShown="0">
-  <autoFilter ref="B3:E6" xr:uid="{E10275AB-F0D8-4F85-ACD2-8075AF9DA23C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD2EC724-BAC3-4EBA-A940-B58B62B510E2}" name="Tabela1" displayName="Tabela1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{E10275AB-F0D8-4F85-ACD2-8075AF9DA23C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8417DDC4-5C5A-438D-84A5-11A5600AB99E}" name="Nome" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{1D77280B-20AE-4234-8086-0565D1C0363C}" name="Grid A" dataDxfId="6"/>
@@ -211,48 +211,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD3AA0FC-A980-4CA5-AB06-7BBDDDF6861F}" name="Tabela2" displayName="Tabela2" ref="B10:D20" totalsRowShown="0">
-  <autoFilter ref="B10:D20" xr:uid="{6FAA08B0-0FD9-4ACE-BBD6-69B104179FA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57C047D3-DFA9-4CB3-8242-892257A0158B}" name="Tabela27" displayName="Tabela27" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{57C047D3-DFA9-4CB3-8242-892257A0158B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FDC492C1-E9CB-4CB3-8027-354A2405FDE6}" name="Pagamento ID"/>
-    <tableColumn id="2" xr3:uid="{774FB289-3817-467E-B0CC-8B7427A8717A}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{64BFED55-C7B4-4924-8530-14560C2417DB}" name="Valor" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{657FABD0-F11E-415B-8A30-7E594A147513}" name="Pagamento ID"/>
+    <tableColumn id="2" xr3:uid="{FDD00893-93EC-4FF9-AE6B-3AC82A7BD509}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{78F9AE9F-85EB-41AA-AF2E-C59A4B22F9C8}" name="Valor" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFC20283-69A7-45C3-9F46-F671432855F6}" name="Tabela24" displayName="Tabela24" ref="B25:D29" totalsRowShown="0">
-  <autoFilter ref="B25:D29" xr:uid="{ECA06F48-9E61-454F-B5EB-22074828F1B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B6BDFCE9-081E-49E7-95DE-25AEBF2AD075}" name="Tabela2414" displayName="Tabela2414" ref="C7:E11" totalsRowShown="0">
+  <autoFilter ref="C7:E11" xr:uid="{B6BDFCE9-081E-49E7-95DE-25AEBF2AD075}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{36234BD1-5DC0-482E-83AA-9C0E79B38989}" name="Pagamento ID"/>
-    <tableColumn id="2" xr3:uid="{B2A176FA-C33B-4385-908D-2DB7F5648A7A}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{FB5C0B2E-ABD7-4373-B2A4-C842B1698BD2}" name="Valor" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{40225CBC-1A98-4B24-8E5F-14B39F70C188}" name="Pagamento ID"/>
+    <tableColumn id="2" xr3:uid="{500FC677-9827-4DF4-A921-9B24E116DAD6}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{FF7C0307-0568-42E2-BAEE-4DEF152C7D15}" name="Valor" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3A7C6462-7A6A-4AA2-979C-98F51E3C2374}" name="Tabela245" displayName="Tabela245" ref="F25:H28" totalsRowShown="0">
-  <autoFilter ref="F25:H28" xr:uid="{BC137B42-D4E4-469C-A874-857A01F207FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EDC95BF6-FEA1-4014-AE01-40C51FC9124F}" name="Tabela24515" displayName="Tabela24515" ref="G7:I10" totalsRowShown="0">
+  <autoFilter ref="G7:I10" xr:uid="{EDC95BF6-FEA1-4014-AE01-40C51FC9124F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9216C345-A961-4491-BB6C-6540533D9175}" name="Pagamento ID"/>
-    <tableColumn id="2" xr3:uid="{4418D7AE-FB4D-49B3-8004-CD955F4EE8B9}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{6B6BF237-73C0-4BA2-B5F0-793840D24528}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4CAF6F52-74E2-44E4-BF7F-346B3B9A56B3}" name="Pagamento ID"/>
+    <tableColumn id="2" xr3:uid="{E9E69DFE-F09A-4F88-8F90-EAD0159959F4}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{F828BF7F-FB35-48D2-AA7B-372207775130}" name="Valor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06D45FE1-D93A-4483-9115-D6E4FDAFD7AE}" name="Tabela246" displayName="Tabela246" ref="J25:L28" totalsRowShown="0">
-  <autoFilter ref="J25:L28" xr:uid="{9CFF1BBB-5236-445D-B073-79DD60F9ECF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BF72E5BE-AA0A-4DF8-BCD8-C4AC3ABE8775}" name="Tabela24616" displayName="Tabela24616" ref="K7:M10" totalsRowShown="0">
+  <autoFilter ref="K7:M10" xr:uid="{BF72E5BE-AA0A-4DF8-BCD8-C4AC3ABE8775}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5FC4E8DC-5AEE-473F-90C2-2046320B4D32}" name="Pagamento ID"/>
-    <tableColumn id="2" xr3:uid="{E908F20E-ECB9-4B2E-9768-74AC17DF1594}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{92592C30-C33B-486F-A70A-3E37291A6B45}" name="Valor" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1754FA18-0853-45AF-A88D-83AAA323A4DD}" name="Pagamento ID"/>
+    <tableColumn id="2" xr3:uid="{57446569-89BB-4413-8EDC-175E5E46D33D}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{62F6F311-AE6F-4540-B70D-679A81090D03}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,49 +555,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A11AE52-869F-4F40-A7CC-3AFC456B583C}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -605,329 +631,402 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F3C497-3D5F-4F22-91BD-285434DA4ED9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>768.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="2">
+        <v>966.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>812.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400.01100000000002</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>635.95000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>364.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>764.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>423.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>309.16000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E810C7DA-D3A9-40B6-B1E3-A9B7B8B193F3}">
+  <dimension ref="C4:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" ht="18.75">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>768.4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I8" s="2">
+        <v>260.3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="M8" s="2">
+        <v>966.58</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>812.41</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>423.7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="M9" s="2">
+        <v>364.55</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>400.01100000000002</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>260.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>768.4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="I10" s="2">
+        <v>309.16000000000003</v>
+      </c>
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
-        <v>966.58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>812.41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>400.01100000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>764.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
         <v>635.95000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>364.55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2">
-        <v>764.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>423.7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>309.16000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="18.75">
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24"/>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>768.4</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="2">
-        <v>260.3</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="2">
-        <v>966.58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2">
-        <v>812.41</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="2">
-        <v>423.7</v>
-      </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
-      <c r="K27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="2">
-        <v>364.55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>400.01100000000002</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="2">
-        <v>309.16000000000003</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="2">
-        <v>764.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>635.95000000000005</v>
-      </c>
+    <row r="12" spans="3:13">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>